--- a/biology/Histoire de la zoologie et de la botanique/Musée_de_la_fraise_(Wépion)/Musée_de_la_fraise_(Wépion).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_de_la_fraise_(Wépion)/Musée_de_la_fraise_(Wépion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_fraise_(W%C3%A9pion)</t>
+          <t>Musée_de_la_fraise_(Wépion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée de la Fraise, se trouvant chaussée de Dinant à Wépion (Belgique) est un centre pour la mémoire de la culture de la fraise en Wallonie, et à Wépion en particulier.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_fraise_(W%C3%A9pion)</t>
+          <t>Musée_de_la_fraise_(Wépion)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un musée est créé en 1970 dans une ancienne maison de Wépion (au bord de la chaussée de Dinant) par le Syndicat Initiative de Wépion avec l’aide de Dorothée Houart, élève du folkloriste Albert Marinus.  L’objectif en était la préservation de la culture et de la mémoire locale (Wépion) par une politique d’acquisition d'objets et d'archives récoltés auprès des habitants. Le musée présentait des scènes de vie au début du XXe siècle au travers de reconstitutions d'intérieurs et d'espaces de métier.
 Deux inondations, en 1994 et 1995 endommagent les collections. Des travaux d'aménagement et de sécurisation du bâtiment sont organisés par la ville de Namur (dont Wépion fait partie). Dans le même temps les perspectives d’avenir sont revues et l’orientation du musée repensée.
